--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>name</t>
   </si>
@@ -22,130 +22,607 @@
     <t>url</t>
   </si>
   <si>
-    <t>noworkflow</t>
-  </si>
-  <si>
-    <t>virtual_chinrest</t>
-  </si>
-  <si>
-    <t>jupyter-for-controls</t>
-  </si>
-  <si>
-    <t>PowerSystemsScientificComputing</t>
-  </si>
-  <si>
-    <t>numerical-analysis-experiments</t>
-  </si>
-  <si>
-    <t>playground</t>
-  </si>
-  <si>
-    <t>computer_control</t>
-  </si>
-  <si>
-    <t>jupyter-init</t>
-  </si>
-  <si>
-    <t>coffee-experiments</t>
-  </si>
-  <si>
-    <t>colab_experiments</t>
-  </si>
-  <si>
-    <t>Scientific-data-Analysis</t>
-  </si>
-  <si>
-    <t>LiveSR</t>
-  </si>
-  <si>
-    <t>omicexperiment</t>
-  </si>
-  <si>
-    <t>Pymaceuticals-</t>
-  </si>
-  <si>
-    <t>LVC</t>
-  </si>
-  <si>
-    <t>python-testing</t>
-  </si>
-  <si>
-    <t>Automatic-Relation-Extraction-from-Scientific-Wet-lab-Protocols</t>
-  </si>
-  <si>
-    <t>Credit-Card-Fraud-Detection</t>
-  </si>
-  <si>
-    <t>House_of_MDs</t>
-  </si>
-  <si>
-    <t>Buffer-Calculator</t>
-  </si>
-  <si>
-    <t>-MBTI-Myers-Briggs-Personality-Type-Dataset</t>
-  </si>
-  <si>
-    <t>https://github.com/gems-uff/noworkflow</t>
-  </si>
-  <si>
-    <t>https://github.com/QishengLi/virtual_chinrest</t>
-  </si>
-  <si>
-    <t>https://github.com/nleclercq/jupyter-for-controls</t>
-  </si>
-  <si>
-    <t>https://github.com/Energy-MAC/PowerSystemsScientificComputing</t>
-  </si>
-  <si>
-    <t>https://github.com/ahlusar1989/numerical-analysis-experiments</t>
-  </si>
-  <si>
-    <t>https://github.com/gil-miranda/playground</t>
-  </si>
-  <si>
-    <t>https://github.com/JPatchett/computer_control</t>
-  </si>
-  <si>
-    <t>https://github.com/tawalaya/jupyter-init</t>
-  </si>
-  <si>
-    <t>https://github.com/wannabecoffeenerd/coffee-experiments</t>
-  </si>
-  <si>
-    <t>https://github.com/festa78/colab_experiments</t>
-  </si>
-  <si>
-    <t>https://github.com/DianaMutekhele/Scientific-data-Analysis</t>
-  </si>
-  <si>
-    <t>https://github.com/jlfilho/LiveSR</t>
-  </si>
-  <si>
-    <t>https://github.com/bassio/omicexperiment</t>
-  </si>
-  <si>
-    <t>https://github.com/drainganggtb/Pymaceuticals-</t>
-  </si>
-  <si>
-    <t>https://github.com/HybridNLP2018/LVC</t>
-  </si>
-  <si>
-    <t>https://github.com/jacopok/python-testing</t>
-  </si>
-  <si>
-    <t>https://github.com/ZohaibRamzan/Automatic-Relation-Extraction-from-Scientific-Wet-lab-Protocols</t>
-  </si>
-  <si>
-    <t>https://github.com/majapuh/Credit-Card-Fraud-Detection</t>
-  </si>
-  <si>
-    <t>https://github.com/abhiraj-mengade/House_of_MDs</t>
-  </si>
-  <si>
-    <t>https://github.com/retyper/Buffer-Calculator</t>
-  </si>
-  <si>
-    <t>https://github.com/OmarHammemi/-MBTI-Myers-Briggs-Personality-Type-Dataset</t>
+    <t>star</t>
+  </si>
+  <si>
+    <t>task_oriented_dialogue_as_dataflow_synthesis</t>
+  </si>
+  <si>
+    <t>safety-starter-agents</t>
+  </si>
+  <si>
+    <t>textvae</t>
+  </si>
+  <si>
+    <t>self-ensemble-visual-domain-adapt</t>
+  </si>
+  <si>
+    <t>holographic-embeddings</t>
+  </si>
+  <si>
+    <t>metalearn-leap</t>
+  </si>
+  <si>
+    <t>maua-stylegan2</t>
+  </si>
+  <si>
+    <t>NAF</t>
+  </si>
+  <si>
+    <t>talkthewalk</t>
+  </si>
+  <si>
+    <t>CapsNet-tensorflow</t>
+  </si>
+  <si>
+    <t>CoT</t>
+  </si>
+  <si>
+    <t>self-ensemble-visual-domain-adapt-photo</t>
+  </si>
+  <si>
+    <t>OpenBookQA</t>
+  </si>
+  <si>
+    <t>curriculum_learning</t>
+  </si>
+  <si>
+    <t>anchor-experiments</t>
+  </si>
+  <si>
+    <t>VariationalDeepSemanticHashing</t>
+  </si>
+  <si>
+    <t>adversarially-motivated-intrinsic-goals</t>
+  </si>
+  <si>
+    <t>yolov2</t>
+  </si>
+  <si>
+    <t>vqa-outliers</t>
+  </si>
+  <si>
+    <t>2019-ZJU_SummerResearch</t>
+  </si>
+  <si>
+    <t>Hierarchical-Typing</t>
+  </si>
+  <si>
+    <t>neural-flows-experiments</t>
+  </si>
+  <si>
+    <t>Learning-From-Rules</t>
+  </si>
+  <si>
+    <t>sonode</t>
+  </si>
+  <si>
+    <t>end2endlobesegmentation</t>
+  </si>
+  <si>
+    <t>BackpropThroughTheVoidRL</t>
+  </si>
+  <si>
+    <t>wsd-biencoders</t>
+  </si>
+  <si>
+    <t>airfoil-opt-gan</t>
+  </si>
+  <si>
+    <t>BMCNNwHFCs</t>
+  </si>
+  <si>
+    <t>rumour-classification</t>
+  </si>
+  <si>
+    <t>BOSS</t>
+  </si>
+  <si>
+    <t>box_embeddings</t>
+  </si>
+  <si>
+    <t>cocottributes</t>
+  </si>
+  <si>
+    <t>unified-embedding</t>
+  </si>
+  <si>
+    <t>GeneralizationAndStabilityInGANs</t>
+  </si>
+  <si>
+    <t>xformer-multi-source-domain-adaptation</t>
+  </si>
+  <si>
+    <t>RTFM</t>
+  </si>
+  <si>
+    <t>why-clipping-accelerates</t>
+  </si>
+  <si>
+    <t>vnn-neural-implicits</t>
+  </si>
+  <si>
+    <t>Word_Mover_Distance</t>
+  </si>
+  <si>
+    <t>hyper-representation</t>
+  </si>
+  <si>
+    <t>seqhawkes</t>
+  </si>
+  <si>
+    <t>Dialogue-State-Tracking-using-LSTM</t>
+  </si>
+  <si>
+    <t>zuco-nlp</t>
+  </si>
+  <si>
+    <t>MusicGenreTranslation</t>
+  </si>
+  <si>
+    <t>differential-privacy-bayesian-optimization</t>
+  </si>
+  <si>
+    <t>nnpu_tf</t>
+  </si>
+  <si>
+    <t>MAMe-baselines</t>
+  </si>
+  <si>
+    <t>gam_rhn</t>
+  </si>
+  <si>
+    <t>Open-Vocabulary-Learning-on-Source-Code-with-a-Graph-Structured-Cache</t>
+  </si>
+  <si>
+    <t>gumbel-relatives</t>
+  </si>
+  <si>
+    <t>squad_rasor_nn</t>
+  </si>
+  <si>
+    <t>semantic_parsing_with_constrained_lm</t>
+  </si>
+  <si>
+    <t>adversarial-detection</t>
+  </si>
+  <si>
+    <t>GeomPickPlace</t>
+  </si>
+  <si>
+    <t>word2vec-translation-matrix</t>
+  </si>
+  <si>
+    <t>aicp</t>
+  </si>
+  <si>
+    <t>Towards-reliable-BioNER</t>
+  </si>
+  <si>
+    <t>entity-matching-transformer</t>
+  </si>
+  <si>
+    <t>HEX_experiments</t>
+  </si>
+  <si>
+    <t>Structured-Self-Attentive-Sentence-Embedding</t>
+  </si>
+  <si>
+    <t>gnosis</t>
+  </si>
+  <si>
+    <t>stochasticity_in_neural_ode</t>
+  </si>
+  <si>
+    <t>metapheno</t>
+  </si>
+  <si>
+    <t>Tensor-LSTM</t>
+  </si>
+  <si>
+    <t>Dicod</t>
+  </si>
+  <si>
+    <t>coegan</t>
+  </si>
+  <si>
+    <t>code_2020ICASSP_iss</t>
+  </si>
+  <si>
+    <t>mmdagg-paper</t>
+  </si>
+  <si>
+    <t>continuous-n-gram-AA</t>
+  </si>
+  <si>
+    <t>patmat-run</t>
+  </si>
+  <si>
+    <t>MultilingualMusicGenreEmbedding</t>
+  </si>
+  <si>
+    <t>GeneticProgrammingTradingExperiments</t>
+  </si>
+  <si>
+    <t>snaptron-experiments</t>
+  </si>
+  <si>
+    <t>CDAAE</t>
+  </si>
+  <si>
+    <t>Active-Learning-for-Example-based-Dialog-Systems</t>
+  </si>
+  <si>
+    <t>resgait</t>
+  </si>
+  <si>
+    <t>RecSys21_DIB</t>
+  </si>
+  <si>
+    <t>dmelodies_controllability</t>
+  </si>
+  <si>
+    <t>POD-Galerkin_MHD</t>
+  </si>
+  <si>
+    <t>dirl</t>
+  </si>
+  <si>
+    <t>Learning-Robust-Options-by-Conditional-Value-at-Risk-Optimization</t>
+  </si>
+  <si>
+    <t>spectrl_tool</t>
+  </si>
+  <si>
+    <t>sinkhorn-imitation</t>
+  </si>
+  <si>
+    <t>Scalable-PaQL-Queries</t>
+  </si>
+  <si>
+    <t>sibling-rivalry</t>
+  </si>
+  <si>
+    <t>modular-loss-experiments</t>
+  </si>
+  <si>
+    <t>MASS-Learning</t>
+  </si>
+  <si>
+    <t>clusterz</t>
+  </si>
+  <si>
+    <t>vla</t>
+  </si>
+  <si>
+    <t>lagrangian-rl</t>
+  </si>
+  <si>
+    <t>Uncertainty4VerificationModels</t>
+  </si>
+  <si>
+    <t>LazyIter</t>
+  </si>
+  <si>
+    <t>Protocol-Benchmarks</t>
+  </si>
+  <si>
+    <t>DeCAF</t>
+  </si>
+  <si>
+    <t>inductive-pooling</t>
+  </si>
+  <si>
+    <t>treeVAE-reproducibility</t>
+  </si>
+  <si>
+    <t>sage-experiments</t>
+  </si>
+  <si>
+    <t>density-based-weighting-for-imbalanced-regression</t>
+  </si>
+  <si>
+    <t>An-Information-theoretic-Metric-of-Transferability</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/task_oriented_dialogue_as_dataflow_synthesis</t>
+  </si>
+  <si>
+    <t>https://github.com/openai/safety-starter-agents</t>
+  </si>
+  <si>
+    <t>https://github.com/ssemeniuta/textvae</t>
+  </si>
+  <si>
+    <t>https://github.com/Britefury/self-ensemble-visual-domain-adapt</t>
+  </si>
+  <si>
+    <t>https://github.com/mnick/holographic-embeddings</t>
+  </si>
+  <si>
+    <t>https://github.com/amzn/metalearn-leap</t>
+  </si>
+  <si>
+    <t>https://github.com/JCBrouwer/maua-stylegan2</t>
+  </si>
+  <si>
+    <t>https://github.com/CW-Huang/NAF</t>
+  </si>
+  <si>
+    <t>https://github.com/facebookresearch/talkthewalk</t>
+  </si>
+  <si>
+    <t>https://github.com/InnerPeace-Wu/CapsNet-tensorflow</t>
+  </si>
+  <si>
+    <t>https://github.com/desire2020/CoT</t>
+  </si>
+  <si>
+    <t>https://github.com/Britefury/self-ensemble-visual-domain-adapt-photo</t>
+  </si>
+  <si>
+    <t>https://github.com/allenai/OpenBookQA</t>
+  </si>
+  <si>
+    <t>https://github.com/GuyHacohen/curriculum_learning</t>
+  </si>
+  <si>
+    <t>https://github.com/marcotcr/anchor-experiments</t>
+  </si>
+  <si>
+    <t>https://github.com/unsuthee/VariationalDeepSemanticHashing</t>
+  </si>
+  <si>
+    <t>https://github.com/facebookresearch/adversarially-motivated-intrinsic-goals</t>
+  </si>
+  <si>
+    <t>https://github.com/datlife/yolov2</t>
+  </si>
+  <si>
+    <t>https://github.com/siddk/vqa-outliers</t>
+  </si>
+  <si>
+    <t>https://github.com/water-wbq/2019-ZJU_SummerResearch</t>
+  </si>
+  <si>
+    <t>https://github.com/MurtyShikhar/Hierarchical-Typing</t>
+  </si>
+  <si>
+    <t>https://github.com/mbilos/neural-flows-experiments</t>
+  </si>
+  <si>
+    <t>https://github.com/awasthiabhijeet/Learning-From-Rules</t>
+  </si>
+  <si>
+    <t>https://github.com/a-norcliffe/sonode</t>
+  </si>
+  <si>
+    <t>https://github.com/filipetrocadoferreira/end2endlobesegmentation</t>
+  </si>
+  <si>
+    <t>https://github.com/wgrathwohl/BackpropThroughTheVoidRL</t>
+  </si>
+  <si>
+    <t>https://github.com/facebookresearch/wsd-biencoders</t>
+  </si>
+  <si>
+    <t>https://github.com/IDEALLab/airfoil-opt-gan</t>
+  </si>
+  <si>
+    <t>https://github.com/AdamByerly/BMCNNwHFCs</t>
+  </si>
+  <si>
+    <t>https://github.com/mlukasik/rumour-classification</t>
+  </si>
+  <si>
+    <t>https://github.com/lnsmith54/BOSS</t>
+  </si>
+  <si>
+    <t>https://github.com/Lorraine333/box_embeddings</t>
+  </si>
+  <si>
+    <t>https://github.com/genp/cocottributes</t>
+  </si>
+  <si>
+    <t>https://github.com/MahdiHajibabaei/unified-embedding</t>
+  </si>
+  <si>
+    <t>https://github.com/htt210/GeneralizationAndStabilityInGANs</t>
+  </si>
+  <si>
+    <t>https://github.com/copenlu/xformer-multi-source-domain-adaptation</t>
+  </si>
+  <si>
+    <t>https://github.com/facebookresearch/RTFM</t>
+  </si>
+  <si>
+    <t>https://github.com/JingzhaoZhang/why-clipping-accelerates</t>
+  </si>
+  <si>
+    <t>https://github.com/FlyingGiraffe/vnn-neural-implicits</t>
+  </si>
+  <si>
+    <t>https://github.com/PragmaticLab/Word_Mover_Distance</t>
+  </si>
+  <si>
+    <t>https://github.com/prolearner/hyper-representation</t>
+  </si>
+  <si>
+    <t>https://github.com/mlukasik/seqhawkes</t>
+  </si>
+  <si>
+    <t>https://github.com/TakuyaHiraoka/Dialogue-State-Tracking-using-LSTM</t>
+  </si>
+  <si>
+    <t>https://github.com/DS3Lab/zuco-nlp</t>
+  </si>
+  <si>
+    <t>https://github.com/deezer/MusicGenreTranslation</t>
+  </si>
+  <si>
+    <t>https://github.com/amzn/differential-privacy-bayesian-optimization</t>
+  </si>
+  <si>
+    <t>https://github.com/GarrettLee/nnpu_tf</t>
+  </si>
+  <si>
+    <t>https://github.com/HPAI-BSC/MAMe-baselines</t>
+  </si>
+  <si>
+    <t>https://github.com/WilliamRo/gam_rhn</t>
+  </si>
+  <si>
+    <t>https://github.com/mwcvitkovic/Open-Vocabulary-Learning-on-Source-Code-with-a-Graph-Structured-Cache</t>
+  </si>
+  <si>
+    <t>https://github.com/matejbalog/gumbel-relatives</t>
+  </si>
+  <si>
+    <t>https://github.com/hsgodhia/squad_rasor_nn</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/semantic_parsing_with_constrained_lm</t>
+  </si>
+  <si>
+    <t>https://github.com/jayaram-r/adversarial-detection</t>
+  </si>
+  <si>
+    <t>https://github.com/mgualti/GeomPickPlace</t>
+  </si>
+  <si>
+    <t>https://github.com/n8686025/word2vec-translation-matrix</t>
+  </si>
+  <si>
+    <t>https://github.com/juangamella/aicp</t>
+  </si>
+  <si>
+    <t>https://github.com/BaderLab/Towards-reliable-BioNER</t>
+  </si>
+  <si>
+    <t>https://github.com/brunnurs/entity-matching-transformer</t>
+  </si>
+  <si>
+    <t>https://github.com/HaohanWang/HEX_experiments</t>
+  </si>
+  <si>
+    <t>https://github.com/kenjewu/Structured-Self-Attentive-Sentence-Embedding</t>
+  </si>
+  <si>
+    <t>https://github.com/samuelstanton/gnosis</t>
+  </si>
+  <si>
+    <t>https://github.com/AlexandraVolokhova/stochasticity_in_neural_ode</t>
+  </si>
+  <si>
+    <t>https://github.com/nlapier2/metapheno</t>
+  </si>
+  <si>
+    <t>https://github.com/MichSchli/Tensor-LSTM</t>
+  </si>
+  <si>
+    <t>https://github.com/tomMoral/Dicod</t>
+  </si>
+  <si>
+    <t>https://github.com/vfcosta/coegan</t>
+  </si>
+  <si>
+    <t>https://github.com/onolab-tmu/code_2020ICASSP_iss</t>
+  </si>
+  <si>
+    <t>https://github.com/antoninschrab/mmdagg-paper</t>
+  </si>
+  <si>
+    <t>https://github.com/yunitata/continuous-n-gram-AA</t>
+  </si>
+  <si>
+    <t>https://github.com/UNSW-database/patmat-run</t>
+  </si>
+  <si>
+    <t>https://github.com/deezer/MultilingualMusicGenreEmbedding</t>
+  </si>
+  <si>
+    <t>https://github.com/jmberutich/GeneticProgrammingTradingExperiments</t>
+  </si>
+  <si>
+    <t>https://github.com/ChristopherWilks/snaptron-experiments</t>
+  </si>
+  <si>
+    <t>https://github.com/luckycallor/CDAAE</t>
+  </si>
+  <si>
+    <t>https://github.com/TakuyaHiraoka/Active-Learning-for-Example-based-Dialog-Systems</t>
+  </si>
+  <si>
+    <t>https://github.com/zihaomu/resgait</t>
+  </si>
+  <si>
+    <t>https://github.com/dgliu/RecSys21_DIB</t>
+  </si>
+  <si>
+    <t>https://github.com/ashispati/dmelodies_controllability</t>
+  </si>
+  <si>
+    <t>https://github.com/akaptano/POD-Galerkin_MHD</t>
+  </si>
+  <si>
+    <t>https://github.com/keyshor/dirl</t>
+  </si>
+  <si>
+    <t>https://github.com/TakuyaHiraoka/Learning-Robust-Options-by-Conditional-Value-at-Risk-Optimization</t>
+  </si>
+  <si>
+    <t>https://github.com/keyshor/spectrl_tool</t>
+  </si>
+  <si>
+    <t>https://github.com/gpapagiannis/sinkhorn-imitation</t>
+  </si>
+  <si>
+    <t>https://github.com/matteo-brucato/Scalable-PaQL-Queries</t>
+  </si>
+  <si>
+    <t>https://github.com/salesforce/sibling-rivalry</t>
+  </si>
+  <si>
+    <t>https://github.com/grey-area/modular-loss-experiments</t>
+  </si>
+  <si>
+    <t>https://github.com/mwcvitkovic/MASS-Learning</t>
+  </si>
+  <si>
+    <t>https://github.com/xyguo/clusterz</t>
+  </si>
+  <si>
+    <t>https://github.com/Stanford-ILIAD/vla</t>
+  </si>
+  <si>
+    <t>https://github.com/pierrelux/lagrangian-rl</t>
+  </si>
+  <si>
+    <t>https://github.com/kochkinaelena/Uncertainty4VerificationModels</t>
+  </si>
+  <si>
+    <t>https://github.com/teshnizi/LazyIter</t>
+  </si>
+  <si>
+    <t>https://github.com/Mytherin/Protocol-Benchmarks</t>
+  </si>
+  <si>
+    <t>https://github.com/anikristo/DeCAF</t>
+  </si>
+  <si>
+    <t>https://github.com/HUJI-Deep/inductive-pooling</t>
+  </si>
+  <si>
+    <t>https://github.com/khalilouardini/treeVAE-reproducibility</t>
+  </si>
+  <si>
+    <t>https://github.com/iancovert/sage-experiments</t>
+  </si>
+  <si>
+    <t>https://github.com/SteiMi/density-based-weighting-for-imbalanced-regression</t>
+  </si>
+  <si>
+    <t>https://github.com/YaojieBao/An-Information-theoretic-Metric-of-Transferability</t>
   </si>
 </sst>
 </file>
@@ -516,186 +993,1121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -721,6 +2133,85 @@
     <hyperlink ref="B20" r:id="rId19"/>
     <hyperlink ref="B21" r:id="rId20"/>
     <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B71" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+    <hyperlink ref="B73" r:id="rId72"/>
+    <hyperlink ref="B74" r:id="rId73"/>
+    <hyperlink ref="B75" r:id="rId74"/>
+    <hyperlink ref="B76" r:id="rId75"/>
+    <hyperlink ref="B77" r:id="rId76"/>
+    <hyperlink ref="B78" r:id="rId77"/>
+    <hyperlink ref="B79" r:id="rId78"/>
+    <hyperlink ref="B80" r:id="rId79"/>
+    <hyperlink ref="B81" r:id="rId80"/>
+    <hyperlink ref="B82" r:id="rId81"/>
+    <hyperlink ref="B83" r:id="rId82"/>
+    <hyperlink ref="B84" r:id="rId83"/>
+    <hyperlink ref="B85" r:id="rId84"/>
+    <hyperlink ref="B86" r:id="rId85"/>
+    <hyperlink ref="B87" r:id="rId86"/>
+    <hyperlink ref="B88" r:id="rId87"/>
+    <hyperlink ref="B89" r:id="rId88"/>
+    <hyperlink ref="B90" r:id="rId89"/>
+    <hyperlink ref="B91" r:id="rId90"/>
+    <hyperlink ref="B92" r:id="rId91"/>
+    <hyperlink ref="B93" r:id="rId92"/>
+    <hyperlink ref="B94" r:id="rId93"/>
+    <hyperlink ref="B95" r:id="rId94"/>
+    <hyperlink ref="B96" r:id="rId95"/>
+    <hyperlink ref="B97" r:id="rId96"/>
+    <hyperlink ref="B98" r:id="rId97"/>
+    <hyperlink ref="B99" r:id="rId98"/>
+    <hyperlink ref="B100" r:id="rId99"/>
+    <hyperlink ref="B101" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
